--- a/sports_docs_formula/all.xlsx
+++ b/sports_docs_formula/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\anthrosport\sports_docs_formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09E7F7-BF10-44FC-9D4E-CB2BAEC0B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760B355-5042-4ADC-999E-C563D0AD6141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8055" yWindow="375" windowWidth="17115" windowHeight="12405" xr2:uid="{3E705FC2-8FE6-42FC-81FB-A48B6C6E97D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E705FC2-8FE6-42FC-81FB-A48B6C6E97D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>badminton</t>
   </si>
@@ -246,13 +246,34 @@
   </si>
   <si>
     <t>ووشو</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>back_flexibility</t>
+  </si>
+  <si>
+    <t>shoulder_flexibility</t>
+  </si>
+  <si>
+    <t>finger_4_2</t>
+  </si>
+  <si>
+    <t>anaerobic</t>
+  </si>
+  <si>
+    <t>lactic anaerobic</t>
+  </si>
+  <si>
+    <t>aerobic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +297,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,11 +338,128 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -462,6 +612,25 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -476,16 +645,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0058193-F3A2-4F6F-8EED-21488C27092B}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G33" xr:uid="{A0058193-F3A2-4F6F-8EED-21488C27092B}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{28196B0E-A6B4-42EC-A68D-87A46AD145AE}" name="en_name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{090CEA5A-9383-40F0-BBE1-7217C0E4F544}" name="fa_name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E2A7B211-7150-43F0-9E09-AC30F044D273}" name="height_to_age" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B7B1687A-CA91-45E7-A253-1E15EF35C84D}" name="one_hand_to_age" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E97A5C4D-3858-44BB-A822-A4E6C61FEEB6}" name="foot_lenght_to_age" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{02A0B880-6C7E-4B8F-809B-4BB0F385999C}" name="shoulder_size_to_age" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FA4388B0-424C-4A2A-8F31-C2E69A352840}" name="armspan_to_height" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0058193-F3A2-4F6F-8EED-21488C27092B}" name="Table1" displayName="Table1" ref="A1:N33" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:N33" xr:uid="{A0058193-F3A2-4F6F-8EED-21488C27092B}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{28196B0E-A6B4-42EC-A68D-87A46AD145AE}" name="en_name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{090CEA5A-9383-40F0-BBE1-7217C0E4F544}" name="fa_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E2A7B211-7150-43F0-9E09-AC30F044D273}" name="height_to_age" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B7B1687A-CA91-45E7-A253-1E15EF35C84D}" name="one_hand_to_age" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E97A5C4D-3858-44BB-A822-A4E6C61FEEB6}" name="foot_lenght_to_age" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{02A0B880-6C7E-4B8F-809B-4BB0F385999C}" name="shoulder_size_to_age" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FA4388B0-424C-4A2A-8F31-C2E69A352840}" name="armspan_to_height" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{EFA42293-782B-4952-8BE4-F3399296BA4B}" name="fat" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2989D0B5-DE2C-47CB-8ADF-38DF7CFC218F}" name="back_flexibility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{61789F16-3C30-4B42-B9C9-48027E437849}" name="shoulder_flexibility" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{7B6C88D8-63C9-48E6-8147-FCFACB99C605}" name="finger_4_2" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BE43BE1F-F9A3-45F9-B3BF-326B58927238}" name="anaerobic" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{7570DC64-C124-476E-81CE-64EA03DC7F26}" name="lactic anaerobic" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{17181208-C966-4C9B-8307-1BADB6262138}" name="aerobic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BE6419-2135-4AB6-938E-886A4952785B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,11 +979,12 @@
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -829,8 +1006,29 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -852,9 +1050,30 @@
       <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -876,9 +1095,30 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -900,9 +1140,30 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -924,9 +1185,30 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -948,9 +1230,30 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -972,9 +1275,30 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -996,9 +1320,30 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1020,9 +1365,30 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1044,9 +1410,30 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1068,9 +1455,30 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1092,9 +1500,30 @@
       <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1116,9 +1545,30 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1140,9 +1590,30 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,9 +1635,30 @@
       <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1188,9 +1680,30 @@
       <c r="G16" s="2">
         <v>4</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1212,9 +1725,30 @@
       <c r="G17" s="2">
         <v>3</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1236,9 +1770,30 @@
       <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1260,9 +1815,30 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1284,9 +1860,30 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1308,9 +1905,30 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1332,9 +1950,30 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1356,9 +1995,30 @@
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1380,9 +2040,30 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1404,9 +2085,30 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1428,9 +2130,30 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1452,9 +2175,30 @@
       <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1476,9 +2220,30 @@
       <c r="G28" s="2">
         <v>3</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1500,9 +2265,30 @@
       <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1524,9 +2310,30 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1548,9 +2355,30 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1572,9 +2400,30 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>5</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1596,9 +2445,31 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3</v>
+      </c>
+      <c r="O33" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
